--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1362415.519721287</v>
+        <v>-1364313.75182541</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>168.6023610971602</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.879987142416093</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>216.7025476026976</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.49399195249339</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.5798521057513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>69.57337214413549</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>41.71736365729108</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>77.39042090546077</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>259.1356101965859</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>149.3982268499442</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>109.9846107733894</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>4.960716884752002</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>156.1303287497573</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>8.483880264975597e-13</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>5.562624396424074</v>
+        <v>81.18647029493748</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>221.547561058393</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>100.4052479476901</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>200.4057320573442</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>167.5142106324307</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>48.46728683286316</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>57.72139006644507</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>19.78862110391533</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>195.8390393277585</v>
+        <v>42.93943942157717</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>95.31089658769019</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>99.64755469183565</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3010,7 +3010,7 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329096</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2457.983330890748</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2457.983330890748</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2457.983330890748</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.214675620634</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.214675620634</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.075343644822</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2080756496231</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286581</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="W4" t="n">
-        <v>447.6725727261395</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="X4" t="n">
-        <v>447.6725727261395</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2080756496231</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2626.872957539298</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="W5" t="n">
-        <v>2401.248554487333</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X5" t="n">
-        <v>2027.782796226253</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y5" t="n">
-        <v>1637.643464250441</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>466.3758425937212</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6913543878343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668.489050745291</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1299.526533804879</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="X8" t="n">
-        <v>2058.628382721103</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1668.489050745291</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4893,31 +4893,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>227.8899898843845</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>58.95380695647759</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>58.95380695647759</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>58.95380695647759</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>58.95380695647759</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>58.95380695647759</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>58.95380695647759</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>58.95380695647759</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="V10" t="n">
-        <v>281.2479710834698</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="W10" t="n">
-        <v>281.2479710834698</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="X10" t="n">
-        <v>281.2479710834698</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.2479710834698</v>
+        <v>409.5384547146242</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.8359039819272</v>
+        <v>757.7241344124261</v>
       </c>
       <c r="C13" t="n">
-        <v>102.8359039819272</v>
+        <v>588.7879514845192</v>
       </c>
       <c r="D13" t="n">
-        <v>102.8359039819272</v>
+        <v>438.6713120721835</v>
       </c>
       <c r="E13" t="n">
-        <v>102.8359039819263</v>
+        <v>290.7582184897904</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347404</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1275.130855347404</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169051</v>
+        <v>1275.130855347404</v>
       </c>
       <c r="W13" t="n">
-        <v>330.8254548799445</v>
+        <v>985.7136853104435</v>
       </c>
       <c r="X13" t="n">
-        <v>102.8359039819272</v>
+        <v>757.7241344124261</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.8359039819272</v>
+        <v>757.7241344124261</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>841.8631140141287</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265284</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.9270045185177</v>
+        <v>460.5891336617992</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>460.5891336617992</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>460.5891336617992</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>460.5891336617992</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1296.486238176747</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1007.357599390305</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1007.357599390305</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W16" t="n">
-        <v>1007.357599390305</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X16" t="n">
-        <v>779.3680484922876</v>
+        <v>681.3817128053294</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.5754693487575</v>
+        <v>460.5891336617992</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5595,16 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766199</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170014</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136706</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.0663679705859</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1329.709997191811</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1105.924581981316</v>
+        <v>1250.039405086724</v>
       </c>
       <c r="U19" t="n">
-        <v>1105.924581981316</v>
+        <v>960.9107663002821</v>
       </c>
       <c r="V19" t="n">
-        <v>1105.924581981316</v>
+        <v>706.2262780943953</v>
       </c>
       <c r="W19" t="n">
-        <v>816.5074119443557</v>
+        <v>706.2262780943953</v>
       </c>
       <c r="X19" t="n">
-        <v>816.5074119443557</v>
+        <v>706.2262780943953</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.7148328008255</v>
+        <v>706.2262780943953</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.4452354807079</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>766.0937003109476</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>766.0937003109476</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>766.0937003109476</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y22" t="n">
-        <v>766.0937003109476</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.1954542207687</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V25" t="n">
-        <v>788.1850051187861</v>
+        <v>831.5539419898857</v>
       </c>
       <c r="W25" t="n">
-        <v>788.1850051187861</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="X25" t="n">
-        <v>560.1954542207687</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.1954542207687</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>488.2756279992598</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L27" t="n">
-        <v>735.0407559057238</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>881.753191430675</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C28" t="n">
-        <v>712.8170085027681</v>
+        <v>638.4104048697839</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904323</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>340.380671875055</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>193.4907243771446</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>193.4907243771446</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1063.401656260915</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>1063.401656260915</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X28" t="n">
-        <v>1063.401656260915</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y28" t="n">
-        <v>1063.401656260915</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,7 +6616,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7105,7 +7105,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211719</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2041.248044820709</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039406</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7348,34 +7348,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>306.3284467737876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>553.0935746802517</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,49 +7807,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254963</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>360.5026862907255</v>
+        <v>253.7371603504751</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504513</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>272.8719470256806</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,19 +9243,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>230.7151863772045</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>62.9112074258382</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>223.6742649934481</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>76.43196988338559</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714835</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>15.83804904622903</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.9802687929765</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>286.5092576192352</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>113.602692129454</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>18.73797368291349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>92.93335645405904</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.0290063840976</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>139.8584236265072</v>
+        <v>64.23457772799377</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.01580007524113</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>21.14182900104501</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>30.40659935117253</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>173.0802742255261</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>122.1105901154922</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>232.3490222199127</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>56.29860399606949</v>
+        <v>209.1982039022508</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>53.60293177984593</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>152.4900886319924</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26317,16 +26317,16 @@
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="F2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213127</v>
       </c>
       <c r="G2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213127</v>
       </c>
       <c r="H2" t="n">
         <v>117308.7179213126</v>
@@ -26338,7 +26338,7 @@
         <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
@@ -26347,13 +26347,13 @@
         <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152552.7115643754</v>
+        <v>152552.7115643756</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143916</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26445,19 +26445,19 @@
         <v>37464.45686275958</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,25 +26485,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703333.0276387484</v>
+        <v>-703351.5213766828</v>
       </c>
       <c r="C6" t="n">
         <v>-116477.7708349896</v>
@@ -26528,34 +26528,34 @@
         <v>-116477.7708349896</v>
       </c>
       <c r="E6" t="n">
-        <v>-514884.3141257393</v>
+        <v>-514981.7732517112</v>
       </c>
       <c r="F6" t="n">
-        <v>10275.72235115686</v>
+        <v>10178.2632251847</v>
       </c>
       <c r="G6" t="n">
-        <v>10275.72235115686</v>
+        <v>10178.26322518472</v>
       </c>
       <c r="H6" t="n">
-        <v>10275.72235115687</v>
+        <v>10178.26322518465</v>
       </c>
       <c r="I6" t="n">
-        <v>10275.72235115686</v>
+        <v>10178.2632251847</v>
       </c>
       <c r="J6" t="n">
-        <v>-166147.4968414361</v>
+        <v>-166244.9559674083</v>
       </c>
       <c r="K6" t="n">
-        <v>-66528.80930685494</v>
+        <v>-66528.80930685496</v>
       </c>
       <c r="L6" t="n">
         <v>-12023.29720314246</v>
       </c>
       <c r="M6" t="n">
-        <v>-146824.3124369797</v>
+        <v>-146824.3124369795</v>
       </c>
       <c r="N6" t="n">
-        <v>-12023.29720314237</v>
+        <v>-12023.29720314243</v>
       </c>
       <c r="O6" t="n">
         <v>-12023.29720314246</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,43 +26735,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>103.7371742197883</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>208.5683332152417</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>69.57932663928014</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.0048012463435</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>146.8749482135223</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>307.523605060122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>89.85640019316706</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>27.14626404539183</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>178.3540316201907</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>259.7464899050797</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>40.239242303785</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>96.00731457407073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28105,10 +28105,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33977,7 +33977,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33986,10 +33986,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>693.6972596887384</v>
+        <v>586.9317337484878</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710908</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>555.2356492667888</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>179.2506324680955</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081117</v>
@@ -35963,19 +35963,19 @@
         <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>541.1395634276706</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>396.105780823851</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>374.2497035813873</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>227.0074084713248</v>
+        <v>332.6095128747336</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>222.9314639777537</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>394.4928362664038</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>619.7038310172479</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352442</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>424.0270691799203</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>169.3134122708527</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
